--- a/data/pca/factorExposure/factorExposure_2017-11-09.xlsx
+++ b/data/pca/factorExposure/factorExposure_2017-11-09.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="109">
   <si>
     <t>factor1</t>
   </si>
@@ -26,6 +26,12 @@
   </si>
   <si>
     <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -692,13 +698,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E104"/>
+  <dimension ref="A1:G104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -711,61 +717,85 @@
       <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B2">
-        <v>-0.02325778228411774</v>
+        <v>-0.01434534096306241</v>
       </c>
       <c r="C2">
-        <v>0.001498561773370997</v>
+        <v>-0.03776743722503193</v>
       </c>
       <c r="D2">
-        <v>0.01298670120257311</v>
+        <v>0.02820971424523162</v>
       </c>
       <c r="E2">
-        <v>0.01569105500240239</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
+        <v>-0.02973646388994393</v>
+      </c>
+      <c r="F2">
+        <v>-0.03063991133465897</v>
+      </c>
+      <c r="G2">
+        <v>0.01646880087025384</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B3">
-        <v>-0.01198519761405131</v>
+        <v>-0.05094163308790862</v>
       </c>
       <c r="C3">
-        <v>-0.0488793285192719</v>
+        <v>-0.08005754767704225</v>
       </c>
       <c r="D3">
-        <v>-0.02250938795398691</v>
+        <v>0.01443734586405434</v>
       </c>
       <c r="E3">
-        <v>-0.005843674912781144</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
+        <v>-0.08094981033994748</v>
+      </c>
+      <c r="F3">
+        <v>-0.05524298379158232</v>
+      </c>
+      <c r="G3">
+        <v>0.06739761422550944</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B4">
-        <v>-0.02215893585180071</v>
+        <v>-0.05451708364570584</v>
       </c>
       <c r="C4">
-        <v>-0.03322884057565951</v>
+        <v>-0.06504352257685651</v>
       </c>
       <c r="D4">
-        <v>0.04843433572801187</v>
+        <v>0.02223555092320548</v>
       </c>
       <c r="E4">
-        <v>0.002751173586106567</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
+        <v>-0.001106944428198245</v>
+      </c>
+      <c r="F4">
+        <v>-0.01567596824317212</v>
+      </c>
+      <c r="G4">
+        <v>0.04538629845049882</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -779,163 +809,223 @@
       <c r="E5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:5">
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B6">
-        <v>-0.01496472332563325</v>
+        <v>-0.03200723634643458</v>
       </c>
       <c r="C6">
-        <v>-0.05181592679805941</v>
+        <v>-0.05406669268656881</v>
       </c>
       <c r="D6">
-        <v>0.05312237576616632</v>
+        <v>0.01620929353471975</v>
       </c>
       <c r="E6">
-        <v>0.0225371889108517</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
+        <v>-0.006801501322259083</v>
+      </c>
+      <c r="F6">
+        <v>-0.01708287755717681</v>
+      </c>
+      <c r="G6">
+        <v>0.02630993144460461</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B7">
-        <v>-0.010759383997204</v>
+        <v>-0.01929582946031264</v>
       </c>
       <c r="C7">
-        <v>-0.02474482368282642</v>
+        <v>-0.03764083787736853</v>
       </c>
       <c r="D7">
-        <v>0.03784422376483317</v>
+        <v>0.01243726775173502</v>
       </c>
       <c r="E7">
-        <v>-0.06096614696965919</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
+        <v>0.01207041505798658</v>
+      </c>
+      <c r="F7">
+        <v>-0.009934388460760904</v>
+      </c>
+      <c r="G7">
+        <v>0.07988474474969916</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B8">
-        <v>0.0005924288380727637</v>
+        <v>0.003134454639369626</v>
       </c>
       <c r="C8">
-        <v>0.01402105302228394</v>
+        <v>-0.01470512402883777</v>
       </c>
       <c r="D8">
-        <v>0.02458165001873504</v>
+        <v>0.003859850021498769</v>
       </c>
       <c r="E8">
-        <v>0.002390595899835094</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
+        <v>-0.01849263810977986</v>
+      </c>
+      <c r="F8">
+        <v>-0.01857585599108742</v>
+      </c>
+      <c r="G8">
+        <v>0.02827027944297159</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B9">
-        <v>-0.01428971492975825</v>
+        <v>-0.0278025763445048</v>
       </c>
       <c r="C9">
-        <v>-0.02641048224696924</v>
+        <v>-0.0437554687569999</v>
       </c>
       <c r="D9">
-        <v>0.02747803681368812</v>
+        <v>0.01548800722267127</v>
       </c>
       <c r="E9">
-        <v>0.005302285246971712</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
+        <v>-0.006447008599782403</v>
+      </c>
+      <c r="F9">
+        <v>-0.01954226464842076</v>
+      </c>
+      <c r="G9">
+        <v>0.03505945811695006</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
       <c r="A10" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B10">
-        <v>-0.006746148408621397</v>
+        <v>-0.08933166328724587</v>
       </c>
       <c r="C10">
-        <v>-0.08885487244611098</v>
+        <v>0.184596947260935</v>
       </c>
       <c r="D10">
-        <v>-0.141146690499701</v>
+        <v>-0.01879334219436615</v>
       </c>
       <c r="E10">
-        <v>-0.06053225489806215</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
+        <v>-0.01942788879100514</v>
+      </c>
+      <c r="F10">
+        <v>0.01708586817792276</v>
+      </c>
+      <c r="G10">
+        <v>0.03658010584318747</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
       <c r="A11" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B11">
-        <v>8.8360748068668e-06</v>
+        <v>-0.03557195620768996</v>
       </c>
       <c r="C11">
-        <v>-0.01873543368727643</v>
+        <v>-0.05332729725314041</v>
       </c>
       <c r="D11">
-        <v>0.02944179060403034</v>
+        <v>0.001361846436984536</v>
       </c>
       <c r="E11">
-        <v>0.02190652244416838</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
+        <v>0.0003766604533642113</v>
+      </c>
+      <c r="F11">
+        <v>-0.02464216446672584</v>
+      </c>
+      <c r="G11">
+        <v>0.01745171222998595</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
       <c r="A12" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B12">
-        <v>-0.005217572919100202</v>
+        <v>-0.03269207065413808</v>
       </c>
       <c r="C12">
-        <v>-0.02692974708567011</v>
+        <v>-0.0453301166566467</v>
       </c>
       <c r="D12">
-        <v>0.03383930218756798</v>
+        <v>0.005537460624747904</v>
       </c>
       <c r="E12">
-        <v>0.01655576325300895</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
+        <v>0.008083295062936202</v>
+      </c>
+      <c r="F12">
+        <v>-0.00684960696517772</v>
+      </c>
+      <c r="G12">
+        <v>0.02006834667231062</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
       <c r="A13" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B13">
-        <v>-0.02093147422513543</v>
+        <v>-0.01212857713308364</v>
       </c>
       <c r="C13">
-        <v>-0.0120211212350351</v>
+        <v>-0.03378375714159714</v>
       </c>
       <c r="D13">
-        <v>0.005278840765177502</v>
+        <v>0.02459407859005336</v>
       </c>
       <c r="E13">
-        <v>0.01067330602443247</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
+        <v>-0.0245707369915417</v>
+      </c>
+      <c r="F13">
+        <v>-0.02116114218300908</v>
+      </c>
+      <c r="G13">
+        <v>0.03081913555542084</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
       <c r="A14" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B14">
-        <v>-0.006873445520152367</v>
+        <v>-0.007490109342609916</v>
       </c>
       <c r="C14">
-        <v>-0.01449778367868074</v>
+        <v>-0.02518747780904855</v>
       </c>
       <c r="D14">
-        <v>0.01335669677085475</v>
+        <v>0.008366879747360187</v>
       </c>
       <c r="E14">
-        <v>-0.007731155934658513</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
+        <v>0.004426356810772048</v>
+      </c>
+      <c r="F14">
+        <v>-0.001808677697306261</v>
+      </c>
+      <c r="G14">
+        <v>0.03918409372225627</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
       <c r="A15" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -949,27 +1039,39 @@
       <c r="E15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:5">
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
       <c r="A16" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B16">
-        <v>-0.0003098864341223246</v>
+        <v>-0.03193353792920482</v>
       </c>
       <c r="C16">
-        <v>-0.02313452022770489</v>
+        <v>-0.04343677007856502</v>
       </c>
       <c r="D16">
-        <v>0.03741721886641008</v>
+        <v>0.0009873760989009578</v>
       </c>
       <c r="E16">
-        <v>0.01880939552239315</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
+        <v>-0.001110258252632492</v>
+      </c>
+      <c r="F16">
+        <v>-0.009886559269173117</v>
+      </c>
+      <c r="G16">
+        <v>0.02029726315043809</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
       <c r="A17" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -983,10 +1085,16 @@
       <c r="E17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:5">
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
       <c r="A18" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -1000,61 +1108,85 @@
       <c r="E18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:5">
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
       <c r="A19" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B19">
-        <v>-0.01163063115299754</v>
+        <v>-0.02871834399042181</v>
       </c>
       <c r="C19">
-        <v>-0.01750945865350974</v>
+        <v>-0.05562371046601863</v>
       </c>
       <c r="D19">
-        <v>0.02952542156663127</v>
+        <v>0.01543842704724535</v>
       </c>
       <c r="E19">
-        <v>0.01169975158872875</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5">
+        <v>-0.04215687165930337</v>
+      </c>
+      <c r="F19">
+        <v>-0.03761546096088126</v>
+      </c>
+      <c r="G19">
+        <v>0.03998085452767372</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
       <c r="A20" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B20">
-        <v>-0.009757223944496572</v>
+        <v>-0.01109635085301824</v>
       </c>
       <c r="C20">
-        <v>-0.002388679332460778</v>
+        <v>-0.03491123291918653</v>
       </c>
       <c r="D20">
-        <v>0.004549545546930602</v>
+        <v>0.01307662352874554</v>
       </c>
       <c r="E20">
-        <v>-0.002381336744427381</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5">
+        <v>-0.02244276300088925</v>
+      </c>
+      <c r="F20">
+        <v>-0.005003470253795272</v>
+      </c>
+      <c r="G20">
+        <v>0.03207781582894954</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
       <c r="A21" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B21">
-        <v>-0.01340849190606846</v>
+        <v>-0.01210492493579531</v>
       </c>
       <c r="C21">
-        <v>-0.03207247690887148</v>
+        <v>-0.03367570217294019</v>
       </c>
       <c r="D21">
-        <v>0.0178331151263009</v>
+        <v>0.01613907632421113</v>
       </c>
       <c r="E21">
-        <v>-0.01254192883005838</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5">
+        <v>-0.02984855781945214</v>
+      </c>
+      <c r="F21">
+        <v>-0.01831901120210067</v>
+      </c>
+      <c r="G21">
+        <v>0.05672075796813758</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
       <c r="A22" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B22">
         <v>0</v>
@@ -1068,10 +1200,16 @@
       <c r="E22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:5">
+      <c r="F22">
+        <v>0</v>
+      </c>
+      <c r="G22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
       <c r="A23" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B23">
         <v>0</v>
@@ -1085,61 +1223,85 @@
       <c r="E23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:5">
+      <c r="F23">
+        <v>0</v>
+      </c>
+      <c r="G23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
       <c r="A24" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B24">
-        <v>-0.004498976477855331</v>
+        <v>-0.02668040918116809</v>
       </c>
       <c r="C24">
-        <v>-0.0202990140961784</v>
+        <v>-0.04642603027148896</v>
       </c>
       <c r="D24">
-        <v>0.0317506994732361</v>
+        <v>0.006296935076800042</v>
       </c>
       <c r="E24">
-        <v>0.01758491160206567</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5">
+        <v>0.004488758033067555</v>
+      </c>
+      <c r="F24">
+        <v>-0.01985296832943571</v>
+      </c>
+      <c r="G24">
+        <v>0.01938595968108381</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
       <c r="A25" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B25">
-        <v>-0.01080210125369743</v>
+        <v>-0.04362575854410769</v>
       </c>
       <c r="C25">
-        <v>-0.03350395888457405</v>
+        <v>-0.0535066679847855</v>
       </c>
       <c r="D25">
-        <v>0.03201781365321418</v>
+        <v>0.01015295528025621</v>
       </c>
       <c r="E25">
-        <v>0.02009770267035155</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5">
+        <v>0.01173421849554458</v>
+      </c>
+      <c r="F25">
+        <v>-0.01526262842891314</v>
+      </c>
+      <c r="G25">
+        <v>0.02523559412658905</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
       <c r="A26" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B26">
-        <v>-0.02259353357141385</v>
+        <v>-0.008291244615776882</v>
       </c>
       <c r="C26">
-        <v>-0.002431033077210968</v>
+        <v>-0.008946836460177946</v>
       </c>
       <c r="D26">
-        <v>-8.841763510872907e-05</v>
+        <v>0.02366365787895609</v>
       </c>
       <c r="E26">
-        <v>-0.007963666694755213</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5">
+        <v>-0.009515169769327245</v>
+      </c>
+      <c r="F26">
+        <v>-0.006233810595360927</v>
+      </c>
+      <c r="G26">
+        <v>0.02660736689966678</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
       <c r="A27" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1153,129 +1315,177 @@
       <c r="E27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:5">
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
       <c r="A28" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B28">
-        <v>-0.02223448094208692</v>
+        <v>-0.1127429738147054</v>
       </c>
       <c r="C28">
-        <v>-0.1338436685249794</v>
+        <v>0.2273617371938564</v>
       </c>
       <c r="D28">
-        <v>-0.2188810596452507</v>
+        <v>-0.0102190894487905</v>
       </c>
       <c r="E28">
-        <v>-0.09908630019516582</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5">
+        <v>-0.008793134086258916</v>
+      </c>
+      <c r="F28">
+        <v>0.008760281618308777</v>
+      </c>
+      <c r="G28">
+        <v>0.05279580025494833</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
       <c r="A29" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B29">
-        <v>-0.006678027221506127</v>
+        <v>-0.01264776227530838</v>
       </c>
       <c r="C29">
-        <v>-0.01550169801895698</v>
+        <v>-0.01881467560087319</v>
       </c>
       <c r="D29">
-        <v>0.009308815590253513</v>
+        <v>0.007063961597905915</v>
       </c>
       <c r="E29">
-        <v>-0.005543625921849515</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5">
+        <v>0.00244231365564549</v>
+      </c>
+      <c r="F29">
+        <v>0.007812433695863923</v>
+      </c>
+      <c r="G29">
+        <v>0.03121226566542136</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
       <c r="A30" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B30">
-        <v>-0.02376368324045009</v>
+        <v>-0.04026642326756179</v>
       </c>
       <c r="C30">
-        <v>-0.02961519633546053</v>
+        <v>-0.07062769152562884</v>
       </c>
       <c r="D30">
-        <v>0.02790395818766144</v>
+        <v>0.02683079086912342</v>
       </c>
       <c r="E30">
-        <v>0.07677472604856365</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5">
+        <v>-0.02278717617846064</v>
+      </c>
+      <c r="F30">
+        <v>-0.04567737984482068</v>
+      </c>
+      <c r="G30">
+        <v>-0.0004733718356551254</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
       <c r="A31" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B31">
-        <v>-0.005811225482062425</v>
+        <v>-0.0442744012636232</v>
       </c>
       <c r="C31">
-        <v>-0.04969414532195076</v>
+        <v>-0.03109121707221123</v>
       </c>
       <c r="D31">
-        <v>0.02229274490713845</v>
+        <v>0.00286190251016577</v>
       </c>
       <c r="E31">
-        <v>0.004511604974243398</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5">
+        <v>0.01018366469324254</v>
+      </c>
+      <c r="F31">
+        <v>0.03684679930920352</v>
+      </c>
+      <c r="G31">
+        <v>0.02465829025930492</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
       <c r="A32" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B32">
-        <v>0.008195913889270715</v>
+        <v>-0.005630522257177408</v>
       </c>
       <c r="C32">
-        <v>-0.0009772553819446699</v>
+        <v>-0.03249596625259285</v>
       </c>
       <c r="D32">
-        <v>0.02456008302398498</v>
+        <v>-0.005209474405662321</v>
       </c>
       <c r="E32">
-        <v>-0.01245824792409169</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5">
+        <v>-0.01494599704236498</v>
+      </c>
+      <c r="F32">
+        <v>-0.07095130025743852</v>
+      </c>
+      <c r="G32">
+        <v>0.04756502953914048</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
       <c r="A33" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B33">
-        <v>-0.0116011791099208</v>
+        <v>-0.02942052797828551</v>
       </c>
       <c r="C33">
-        <v>-0.021994642250023</v>
+        <v>-0.04994716932594715</v>
       </c>
       <c r="D33">
-        <v>0.01205509512222202</v>
+        <v>0.01391301602315526</v>
       </c>
       <c r="E33">
-        <v>0.03298709263296608</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5">
+        <v>-0.02126751086313889</v>
+      </c>
+      <c r="F33">
+        <v>-0.02496455203353348</v>
+      </c>
+      <c r="G33">
+        <v>0.02731585630960351</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
       <c r="A34" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B34">
-        <v>0.005606642696947973</v>
+        <v>-0.04573220533981071</v>
       </c>
       <c r="C34">
-        <v>-0.02915789323448814</v>
+        <v>-0.05465043694227631</v>
       </c>
       <c r="D34">
-        <v>0.04063456730388067</v>
+        <v>-0.005836343493914918</v>
       </c>
       <c r="E34">
-        <v>0.01242121303650326</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5">
+        <v>0.01018950291627915</v>
+      </c>
+      <c r="F34">
+        <v>-0.02317218745565882</v>
+      </c>
+      <c r="G34">
+        <v>0.03068338672574532</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
       <c r="A35" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -1289,27 +1499,39 @@
       <c r="E35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:5">
+      <c r="F35">
+        <v>0</v>
+      </c>
+      <c r="G35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
       <c r="A36" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B36">
-        <v>-0.01133438288993647</v>
+        <v>-0.01071881511628419</v>
       </c>
       <c r="C36">
-        <v>-0.01305636563210564</v>
+        <v>-0.006946503145730963</v>
       </c>
       <c r="D36">
-        <v>0.0006673202022306108</v>
+        <v>0.01115088764046896</v>
       </c>
       <c r="E36">
-        <v>-0.0002962471215136469</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5">
+        <v>-0.0005680856611574138</v>
+      </c>
+      <c r="F36">
+        <v>-0.0004589420909480794</v>
+      </c>
+      <c r="G36">
+        <v>0.01999848461155884</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
       <c r="A37" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1323,129 +1545,177 @@
       <c r="E37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:5">
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
       <c r="A38" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B38">
-        <v>0.006473303757715034</v>
+        <v>-0.03464061357068268</v>
       </c>
       <c r="C38">
-        <v>-0.02852956005995087</v>
+        <v>-0.02509213455153617</v>
       </c>
       <c r="D38">
-        <v>0.01735606402928037</v>
+        <v>-0.008271418326968285</v>
       </c>
       <c r="E38">
-        <v>0.01417775794449964</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5">
+        <v>-0.0041072523384499</v>
+      </c>
+      <c r="F38">
+        <v>0.0002830692211405035</v>
+      </c>
+      <c r="G38">
+        <v>0.02825655244320651</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
       <c r="A39" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B39">
-        <v>-0.00555581557692784</v>
+        <v>-0.03245161677963136</v>
       </c>
       <c r="C39">
-        <v>-0.01648433513539162</v>
+        <v>-0.08292580605515154</v>
       </c>
       <c r="D39">
-        <v>0.06397968088875362</v>
+        <v>0.01158624805058924</v>
       </c>
       <c r="E39">
-        <v>0.02856797813220791</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5">
+        <v>-0.01352724865804151</v>
+      </c>
+      <c r="F39">
+        <v>-0.03976254546661036</v>
+      </c>
+      <c r="G39">
+        <v>0.0220769052149429</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
       <c r="A40" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B40">
-        <v>-0.01029677731081282</v>
+        <v>-0.01999740954675625</v>
       </c>
       <c r="C40">
-        <v>-0.02242273379616809</v>
+        <v>-0.03041779809557887</v>
       </c>
       <c r="D40">
-        <v>0.03075472817058735</v>
+        <v>0.01272704847528485</v>
       </c>
       <c r="E40">
-        <v>0.02765334935009506</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5">
+        <v>-0.01702066188192224</v>
+      </c>
+      <c r="F40">
+        <v>-0.02007731708638376</v>
+      </c>
+      <c r="G40">
+        <v>0.02019315744399628</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
       <c r="A41" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B41">
-        <v>-0.004842837173676121</v>
+        <v>-0.01157711075616081</v>
       </c>
       <c r="C41">
-        <v>-0.01416138709025575</v>
+        <v>0.001799902052128281</v>
       </c>
       <c r="D41">
-        <v>-0.008401644394070344</v>
+        <v>0.00353758148377268</v>
       </c>
       <c r="E41">
-        <v>-0.003486341067459205</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5">
+        <v>0.003206277070050542</v>
+      </c>
+      <c r="F41">
+        <v>-0.001472860247169187</v>
+      </c>
+      <c r="G41">
+        <v>0.0142415428584343</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
       <c r="A42" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B42">
-        <v>-0.08816598403967413</v>
+        <v>-0.0313215544453703</v>
       </c>
       <c r="C42">
-        <v>-0.06059357112260125</v>
+        <v>-0.05427090612543319</v>
       </c>
       <c r="D42">
-        <v>0.1211230163766201</v>
+        <v>0.1013838608173052</v>
       </c>
       <c r="E42">
-        <v>0.2866906157363142</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5">
+        <v>-0.05699983008027867</v>
+      </c>
+      <c r="F42">
+        <v>0.1063950631972781</v>
+      </c>
+      <c r="G42">
+        <v>-0.2212056327097185</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
       <c r="A43" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B43">
-        <v>-0.005815233998142531</v>
+        <v>-0.02843204281012175</v>
       </c>
       <c r="C43">
-        <v>-0.0151617968122762</v>
+        <v>-0.00807668235994604</v>
       </c>
       <c r="D43">
-        <v>-0.007533151084470728</v>
+        <v>0.003716747717186391</v>
       </c>
       <c r="E43">
-        <v>0.002253122993470376</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5">
+        <v>-0.003635016366251978</v>
+      </c>
+      <c r="F43">
+        <v>0.0002414819252676429</v>
+      </c>
+      <c r="G43">
+        <v>0.01920700043707431</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
       <c r="A44" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B44">
-        <v>-0.002489274301778663</v>
+        <v>-0.01644848440349542</v>
       </c>
       <c r="C44">
-        <v>-0.001222172376018934</v>
+        <v>-0.04638758042169213</v>
       </c>
       <c r="D44">
-        <v>0.01407255483486667</v>
+        <v>0.006287093546440215</v>
       </c>
       <c r="E44">
-        <v>-0.002096785556407668</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5">
+        <v>-0.01882104381824152</v>
+      </c>
+      <c r="F44">
+        <v>-0.02388294817340583</v>
+      </c>
+      <c r="G44">
+        <v>0.03578616941983116</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
       <c r="A45" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1459,61 +1729,85 @@
       <c r="E45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:5">
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
       <c r="A46" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B46">
-        <v>-0.009607439147025143</v>
+        <v>-0.003070487295010271</v>
       </c>
       <c r="C46">
-        <v>-0.009256436749214371</v>
+        <v>-0.01646137309490775</v>
       </c>
       <c r="D46">
-        <v>0.0151281614771432</v>
+        <v>0.01149766970860459</v>
       </c>
       <c r="E46">
-        <v>0.005558328256600145</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5">
+        <v>0.001268146522828845</v>
+      </c>
+      <c r="F46">
+        <v>0.01038839624295689</v>
+      </c>
+      <c r="G46">
+        <v>0.0254699295021768</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
       <c r="A47" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B47">
-        <v>-0.0002991384958764391</v>
+        <v>-0.07497222751533895</v>
       </c>
       <c r="C47">
-        <v>-0.07217727439806457</v>
+        <v>-0.06341443627585426</v>
       </c>
       <c r="D47">
-        <v>0.03081309042697921</v>
+        <v>-0.005204044751085132</v>
       </c>
       <c r="E47">
-        <v>0.02201212343086798</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5">
+        <v>0.01323618943603963</v>
+      </c>
+      <c r="F47">
+        <v>0.0620783808090851</v>
+      </c>
+      <c r="G47">
+        <v>0.02384764653309523</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7">
       <c r="A48" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B48">
-        <v>-0.002316830423528098</v>
+        <v>-0.01912253207134576</v>
       </c>
       <c r="C48">
-        <v>-0.0249627069568219</v>
+        <v>-0.01002703040349217</v>
       </c>
       <c r="D48">
-        <v>0.003106682884582442</v>
+        <v>0.0007571943142569131</v>
       </c>
       <c r="E48">
-        <v>0.003956067322050416</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5">
+        <v>0.002146091247957846</v>
+      </c>
+      <c r="F48">
+        <v>0.0137184781477406</v>
+      </c>
+      <c r="G48">
+        <v>0.02366877368740189</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7">
       <c r="A49" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1527,44 +1821,62 @@
       <c r="E49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:5">
+      <c r="F49">
+        <v>0</v>
+      </c>
+      <c r="G49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7">
       <c r="A50" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B50">
-        <v>-0.001077821662838044</v>
+        <v>-0.07911514492428652</v>
       </c>
       <c r="C50">
-        <v>-0.06242609096809331</v>
+        <v>-0.06450778671000273</v>
       </c>
       <c r="D50">
-        <v>0.04479212074626868</v>
+        <v>-0.004358238855069074</v>
       </c>
       <c r="E50">
-        <v>-0.002838686891761328</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5">
+        <v>0.01527455375074762</v>
+      </c>
+      <c r="F50">
+        <v>0.0581964312998051</v>
+      </c>
+      <c r="G50">
+        <v>0.04387837676023965</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7">
       <c r="A51" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B51">
-        <v>-0.006159388369849</v>
+        <v>-0.01227554819121044</v>
       </c>
       <c r="C51">
-        <v>-0.002469792011412019</v>
+        <v>-0.0269565606198029</v>
       </c>
       <c r="D51">
-        <v>-0.007917961307612999</v>
+        <v>0.008605165402311578</v>
       </c>
       <c r="E51">
-        <v>-0.01675150560496129</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5">
+        <v>-0.006270950352256864</v>
+      </c>
+      <c r="F51">
+        <v>-0.0290177676749564</v>
+      </c>
+      <c r="G51">
+        <v>0.04848496170335508</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7">
       <c r="A52" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1578,163 +1890,223 @@
       <c r="E52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:5">
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7">
       <c r="A53" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B53">
-        <v>-0.002026331419133966</v>
+        <v>-0.09622945686979908</v>
       </c>
       <c r="C53">
-        <v>-0.1017301445787972</v>
+        <v>-0.07610502543840195</v>
       </c>
       <c r="D53">
-        <v>0.07153085389760387</v>
+        <v>-0.006053463287236701</v>
       </c>
       <c r="E53">
-        <v>0.03134814752067315</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5">
+        <v>0.03949505704930925</v>
+      </c>
+      <c r="F53">
+        <v>0.06563362855447157</v>
+      </c>
+      <c r="G53">
+        <v>0.02329514043820521</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7">
       <c r="A54" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B54">
-        <v>0.002471351832293698</v>
+        <v>-0.02906090191832515</v>
       </c>
       <c r="C54">
-        <v>-0.0236741193136764</v>
+        <v>-0.004541083356306896</v>
       </c>
       <c r="D54">
-        <v>-0.005343500462188714</v>
+        <v>-0.004170954577012062</v>
       </c>
       <c r="E54">
-        <v>-0.01161970565273565</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5">
+        <v>-0.00351690185837233</v>
+      </c>
+      <c r="F54">
+        <v>0.001946115262230088</v>
+      </c>
+      <c r="G54">
+        <v>0.03220232716489871</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7">
       <c r="A55" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B55">
-        <v>-7.471484851168132e-05</v>
+        <v>-0.07362163188080834</v>
       </c>
       <c r="C55">
-        <v>-0.07812604168495729</v>
+        <v>-0.07128434433526901</v>
       </c>
       <c r="D55">
-        <v>0.0663303891497273</v>
+        <v>-0.004939641694826686</v>
       </c>
       <c r="E55">
-        <v>0.03828902554875636</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5">
+        <v>0.02821790856651573</v>
+      </c>
+      <c r="F55">
+        <v>0.06343500944057953</v>
+      </c>
+      <c r="G55">
+        <v>0.01040919353536167</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7">
       <c r="A56" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B56">
-        <v>0.0005258214052602276</v>
+        <v>-0.1470748362863576</v>
       </c>
       <c r="C56">
-        <v>-0.1434667142049215</v>
+        <v>-0.09935908156884043</v>
       </c>
       <c r="D56">
-        <v>0.08492362901848671</v>
+        <v>-0.01456338357455777</v>
       </c>
       <c r="E56">
-        <v>0.05114265081272158</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5">
+        <v>0.04469082838634129</v>
+      </c>
+      <c r="F56">
+        <v>0.1002871457235095</v>
+      </c>
+      <c r="G56">
+        <v>0.0001379688490680336</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7">
       <c r="A57" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B57">
-        <v>-0.02344615651717783</v>
+        <v>-0.01245230017291335</v>
       </c>
       <c r="C57">
-        <v>-0.03567704530178382</v>
+        <v>-0.01170772182130247</v>
       </c>
       <c r="D57">
-        <v>0.02080177437380943</v>
+        <v>0.02357386981251514</v>
       </c>
       <c r="E57">
-        <v>0.01918479886800379</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5">
+        <v>-0.02756012496536988</v>
+      </c>
+      <c r="F57">
+        <v>-0.01464939704695702</v>
+      </c>
+      <c r="G57">
+        <v>0.02317317942691778</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7">
       <c r="A58" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B58">
-        <v>-0.01071698452134312</v>
+        <v>-0.07461969306924897</v>
       </c>
       <c r="C58">
-        <v>-0.09437857595488286</v>
+        <v>-0.06924234063039628</v>
       </c>
       <c r="D58">
-        <v>-0.0457237602862624</v>
+        <v>0.02001115003565528</v>
       </c>
       <c r="E58">
-        <v>0.1516256641131951</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5">
+        <v>-0.9387043726530205</v>
+      </c>
+      <c r="F58">
+        <v>0.2505823297614272</v>
+      </c>
+      <c r="G58">
+        <v>0.05140804986221858</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7">
       <c r="A59" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B59">
-        <v>-0.01824068272332745</v>
+        <v>-0.1492080404474651</v>
       </c>
       <c r="C59">
-        <v>-0.1307075873270812</v>
+        <v>0.2140147141536816</v>
       </c>
       <c r="D59">
-        <v>-0.2087496787717557</v>
+        <v>-0.01670806866793543</v>
       </c>
       <c r="E59">
-        <v>-0.06770783299146341</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5">
+        <v>-0.01627318055225604</v>
+      </c>
+      <c r="F59">
+        <v>-0.009911274615197491</v>
+      </c>
+      <c r="G59">
+        <v>0.02066826613357156</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7">
       <c r="A60" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B60">
-        <v>-0.02707244811123553</v>
+        <v>-0.2939072602431262</v>
       </c>
       <c r="C60">
-        <v>-0.1977349294056462</v>
+        <v>-0.08319421105093076</v>
       </c>
       <c r="D60">
-        <v>-0.01962447359336284</v>
+        <v>0.007186661087399794</v>
       </c>
       <c r="E60">
-        <v>0.0636928492579448</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5">
+        <v>-0.02748357071287523</v>
+      </c>
+      <c r="F60">
+        <v>-0.387570882037913</v>
+      </c>
+      <c r="G60">
+        <v>-0.07156584128910284</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7">
       <c r="A61" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B61">
-        <v>-0.002793097718055003</v>
+        <v>-0.03349657051667935</v>
       </c>
       <c r="C61">
-        <v>-0.02843512033828693</v>
+        <v>-0.0633023210719619</v>
       </c>
       <c r="D61">
-        <v>0.04974635398807643</v>
+        <v>0.004944500323696837</v>
       </c>
       <c r="E61">
-        <v>0.02740082743016194</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5">
+        <v>-0.008718819195508614</v>
+      </c>
+      <c r="F61">
+        <v>-0.02439546156559153</v>
+      </c>
+      <c r="G61">
+        <v>0.02408764127231604</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7">
       <c r="A62" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -1748,129 +2120,177 @@
       <c r="E62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:5">
+      <c r="F62">
+        <v>0</v>
+      </c>
+      <c r="G62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7">
       <c r="A63" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B63">
-        <v>-0.007306871631955811</v>
+        <v>-0.01501083887279744</v>
       </c>
       <c r="C63">
-        <v>-0.01210460314332851</v>
+        <v>-0.02567292950966306</v>
       </c>
       <c r="D63">
-        <v>0.01561690512427421</v>
+        <v>0.007653210885668238</v>
       </c>
       <c r="E63">
-        <v>0.001887920038570381</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5">
+        <v>0.01075380378241192</v>
+      </c>
+      <c r="F63">
+        <v>0.01085825303002834</v>
+      </c>
+      <c r="G63">
+        <v>0.03136221937736253</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7">
       <c r="A64" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B64">
-        <v>-0.005568661789202034</v>
+        <v>-0.04710899951102496</v>
       </c>
       <c r="C64">
-        <v>-0.04414260074552802</v>
+        <v>-0.03571829180312931</v>
       </c>
       <c r="D64">
-        <v>0.03951196640264473</v>
+        <v>0.00448472147420808</v>
       </c>
       <c r="E64">
-        <v>0.02771501747345023</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5">
+        <v>0.008966171710806829</v>
+      </c>
+      <c r="F64">
+        <v>-0.0122899542697311</v>
+      </c>
+      <c r="G64">
+        <v>0.01908560604964685</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7">
       <c r="A65" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B65">
-        <v>-0.01731444352997331</v>
+        <v>-0.08091295798085625</v>
       </c>
       <c r="C65">
-        <v>-0.06367809913834668</v>
+        <v>-0.067240421797851</v>
       </c>
       <c r="D65">
-        <v>0.06020465710588891</v>
+        <v>0.01510677810053475</v>
       </c>
       <c r="E65">
-        <v>0.02914388058898375</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5">
+        <v>-0.005786229890925708</v>
+      </c>
+      <c r="F65">
+        <v>-0.04144361595044793</v>
+      </c>
+      <c r="G65">
+        <v>0.01209468557465878</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7">
       <c r="A66" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B66">
-        <v>-0.005213958180478355</v>
+        <v>-0.05357060118398307</v>
       </c>
       <c r="C66">
-        <v>-0.03444945868139181</v>
+        <v>-0.1155800959185013</v>
       </c>
       <c r="D66">
-        <v>0.07256620006471586</v>
+        <v>0.01106064490008996</v>
       </c>
       <c r="E66">
-        <v>0.04939635430649363</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5">
+        <v>-0.01627416268990384</v>
+      </c>
+      <c r="F66">
+        <v>-0.04817465299241822</v>
+      </c>
+      <c r="G66">
+        <v>0.01742124228274442</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7">
       <c r="A67" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B67">
-        <v>0.001856938668954682</v>
+        <v>-0.05850895936760095</v>
       </c>
       <c r="C67">
-        <v>-0.04587622798800412</v>
+        <v>-0.02873356186796888</v>
       </c>
       <c r="D67">
-        <v>0.01388640551727313</v>
+        <v>-0.006868655105298464</v>
       </c>
       <c r="E67">
-        <v>0.01615858666467269</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5">
+        <v>0.003879983373619281</v>
+      </c>
+      <c r="F67">
+        <v>0.002169395337002153</v>
+      </c>
+      <c r="G67">
+        <v>0.02751567209629511</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7">
       <c r="A68" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B68">
-        <v>-0.03595795008589663</v>
+        <v>-0.1313948316131997</v>
       </c>
       <c r="C68">
-        <v>-0.115711789975506</v>
+        <v>0.2714968144489367</v>
       </c>
       <c r="D68">
-        <v>-0.2145120243858208</v>
+        <v>0.00115675975812365</v>
       </c>
       <c r="E68">
-        <v>-0.0758878889257254</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5">
+        <v>-0.0190804240686682</v>
+      </c>
+      <c r="F68">
+        <v>0.01474629722572374</v>
+      </c>
+      <c r="G68">
+        <v>0.01638368195412837</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7">
       <c r="A69" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B69">
-        <v>0.00375170855619964</v>
+        <v>-0.07789283993989264</v>
       </c>
       <c r="C69">
-        <v>-0.05974006188711582</v>
+        <v>-0.06376888380356778</v>
       </c>
       <c r="D69">
-        <v>0.03594686802460713</v>
+        <v>-0.009342643614624229</v>
       </c>
       <c r="E69">
-        <v>0.01818726427888914</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5">
+        <v>0.03029063200755564</v>
+      </c>
+      <c r="F69">
+        <v>0.03953176759914608</v>
+      </c>
+      <c r="G69">
+        <v>0.02364493009534505</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7">
       <c r="A70" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -1884,146 +2304,200 @@
       <c r="E70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:5">
+      <c r="F70">
+        <v>0</v>
+      </c>
+      <c r="G70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7">
       <c r="A71" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B71">
-        <v>-0.02483935645092544</v>
+        <v>-0.1277124286085769</v>
       </c>
       <c r="C71">
-        <v>-0.1095745923896873</v>
+        <v>0.2282925859012895</v>
       </c>
       <c r="D71">
-        <v>-0.1887882907931132</v>
+        <v>-0.007568152312608913</v>
       </c>
       <c r="E71">
-        <v>-0.07885655313739082</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5">
+        <v>-0.02562691470718072</v>
+      </c>
+      <c r="F71">
+        <v>0.01839069917050104</v>
+      </c>
+      <c r="G71">
+        <v>0.03391405077190104</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7">
       <c r="A72" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B72">
-        <v>0.002881655918623762</v>
+        <v>-0.08463835724886627</v>
       </c>
       <c r="C72">
-        <v>-0.1095684426912525</v>
+        <v>-0.07683296266861626</v>
       </c>
       <c r="D72">
-        <v>0.08390842057768028</v>
+        <v>-0.008992443865970118</v>
       </c>
       <c r="E72">
-        <v>0.07221461446610805</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5">
+        <v>0.009749663534078586</v>
+      </c>
+      <c r="F72">
+        <v>-0.03772325522170415</v>
+      </c>
+      <c r="G72">
+        <v>0.0006753039593426783</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7">
       <c r="A73" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B73">
-        <v>-0.04002828361072901</v>
+        <v>-0.4051208776110188</v>
       </c>
       <c r="C73">
-        <v>-0.2433535730373549</v>
+        <v>-0.09946942022764187</v>
       </c>
       <c r="D73">
-        <v>0.009589935689588335</v>
+        <v>0.01152187797688756</v>
       </c>
       <c r="E73">
-        <v>0.1492538360997605</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5">
+        <v>-0.07595641610867185</v>
+      </c>
+      <c r="F73">
+        <v>-0.5342536816703347</v>
+      </c>
+      <c r="G73">
+        <v>-0.1228598724125058</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7">
       <c r="A74" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B74">
-        <v>0.001396309074424016</v>
+        <v>-0.1166109922144891</v>
       </c>
       <c r="C74">
-        <v>-0.1363405159804631</v>
+        <v>-0.1160490853484152</v>
       </c>
       <c r="D74">
-        <v>0.07880285860329192</v>
+        <v>-0.01074677961185441</v>
       </c>
       <c r="E74">
-        <v>0.05739656624836864</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5">
+        <v>0.03890247480360991</v>
+      </c>
+      <c r="F74">
+        <v>0.07135764857439127</v>
+      </c>
+      <c r="G74">
+        <v>0.0228495204741063</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7">
       <c r="A75" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B75">
-        <v>0.002960045226161508</v>
+        <v>-0.2632730279226944</v>
       </c>
       <c r="C75">
-        <v>-0.2784710371511478</v>
+        <v>-0.1441674728271521</v>
       </c>
       <c r="D75">
-        <v>0.1342405029022783</v>
+        <v>-0.03229030861836558</v>
       </c>
       <c r="E75">
-        <v>0.1078420103505869</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5">
+        <v>0.0798094802699091</v>
+      </c>
+      <c r="F75">
+        <v>0.2110115152692315</v>
+      </c>
+      <c r="G75">
+        <v>-0.03085106942637985</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7">
       <c r="A76" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B76">
-        <v>0.00624209092490003</v>
+        <v>-0.137779653086408</v>
       </c>
       <c r="C76">
-        <v>-0.2339712102553044</v>
+        <v>-0.1205933084172991</v>
       </c>
       <c r="D76">
-        <v>0.1396560099498541</v>
+        <v>-0.02197929631647767</v>
       </c>
       <c r="E76">
-        <v>0.07793036718758925</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5">
+        <v>0.07073371989677095</v>
+      </c>
+      <c r="F76">
+        <v>0.1347012271535087</v>
+      </c>
+      <c r="G76">
+        <v>0.009975651718427087</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7">
       <c r="A77" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B77">
-        <v>-0.0118005686055743</v>
+        <v>-0.06145670520635337</v>
       </c>
       <c r="C77">
-        <v>-0.0306707608774548</v>
+        <v>-0.06030810757541579</v>
       </c>
       <c r="D77">
-        <v>0.04548824801207418</v>
+        <v>0.01198725964630813</v>
       </c>
       <c r="E77">
-        <v>0.0230330192721128</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5">
+        <v>-0.04071835895284443</v>
+      </c>
+      <c r="F77">
+        <v>-0.01727181027411215</v>
+      </c>
+      <c r="G77">
+        <v>0.04761503561756576</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7">
       <c r="A78" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B78">
-        <v>-0.003875789836911143</v>
+        <v>-0.04064998772482567</v>
       </c>
       <c r="C78">
-        <v>-0.0329754623062098</v>
+        <v>-0.05108959369755817</v>
       </c>
       <c r="D78">
-        <v>0.04142133967998508</v>
+        <v>0.005292367010422142</v>
       </c>
       <c r="E78">
-        <v>0.01980528682805663</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5">
+        <v>-0.01830749199974498</v>
+      </c>
+      <c r="F78">
+        <v>-0.03986128917900631</v>
+      </c>
+      <c r="G78">
+        <v>0.03432806110169868</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7">
       <c r="A79" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B79">
         <v>0</v>
@@ -2037,78 +2511,108 @@
       <c r="E79">
         <v>0</v>
       </c>
-    </row>
-    <row r="80" spans="1:5">
+      <c r="F79">
+        <v>0</v>
+      </c>
+      <c r="G79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7">
       <c r="A80" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B80">
-        <v>-0.01459383770440555</v>
+        <v>-0.06168307384291754</v>
       </c>
       <c r="C80">
-        <v>-0.2465674623741148</v>
+        <v>-0.06919556868040153</v>
       </c>
       <c r="D80">
-        <v>0.422516194526621</v>
+        <v>0.01156298815701732</v>
       </c>
       <c r="E80">
-        <v>-0.8207374060921363</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5">
+        <v>0.07022215259738088</v>
+      </c>
+      <c r="F80">
+        <v>-0.02203218702040651</v>
+      </c>
+      <c r="G80">
+        <v>0.9088304624877858</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7">
       <c r="A81" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B81">
-        <v>0.0004313902549333469</v>
+        <v>-0.1454648423765796</v>
       </c>
       <c r="C81">
-        <v>-0.1857105636387379</v>
+        <v>-0.09388424274053397</v>
       </c>
       <c r="D81">
-        <v>0.09353910171543478</v>
+        <v>-0.01629379528387097</v>
       </c>
       <c r="E81">
-        <v>0.06139324785971146</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5">
+        <v>0.05069862331342092</v>
+      </c>
+      <c r="F81">
+        <v>0.1364516872297093</v>
+      </c>
+      <c r="G81">
+        <v>0.01401238412103832</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7">
       <c r="A82" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B82">
-        <v>0</v>
+        <v>-0.05317260931734522</v>
       </c>
       <c r="C82">
-        <v>0</v>
+        <v>-0.0322503046360284</v>
       </c>
       <c r="D82">
-        <v>0</v>
+        <v>-0.003071122823434061</v>
       </c>
       <c r="E82">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5">
+        <v>0.01398310018643108</v>
+      </c>
+      <c r="F82">
+        <v>0.002441407192216785</v>
+      </c>
+      <c r="G82">
+        <v>-0.004889074954652098</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7">
       <c r="A83" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B83">
-        <v>-0.006375611302288145</v>
+        <v>-0.02892512314554281</v>
       </c>
       <c r="C83">
-        <v>-0.03507067210805805</v>
+        <v>-0.0198743905839756</v>
       </c>
       <c r="D83">
-        <v>0.005189847997780045</v>
+        <v>0.005011990906675931</v>
       </c>
       <c r="E83">
-        <v>0.01220592122355587</v>
-      </c>
-    </row>
-    <row r="84" spans="1:5">
+        <v>-0.02745024921372722</v>
+      </c>
+      <c r="F83">
+        <v>-0.02042430714160077</v>
+      </c>
+      <c r="G83">
+        <v>0.02581772901836473</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7">
       <c r="A84" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B84">
         <v>0</v>
@@ -2122,197 +2626,269 @@
       <c r="E84">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="1:5">
+      <c r="F84">
+        <v>0</v>
+      </c>
+      <c r="G84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7">
       <c r="A85" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B85">
-        <v>-0.006243455769720272</v>
+        <v>-0.2401455723753438</v>
       </c>
       <c r="C85">
-        <v>-0.2384468429997801</v>
+        <v>-0.1486033080835534</v>
       </c>
       <c r="D85">
-        <v>0.1506620707290814</v>
+        <v>-0.02097198836636945</v>
       </c>
       <c r="E85">
-        <v>0.1232858394090317</v>
-      </c>
-    </row>
-    <row r="86" spans="1:5">
+        <v>0.1266767153157058</v>
+      </c>
+      <c r="F85">
+        <v>0.201947942132156</v>
+      </c>
+      <c r="G85">
+        <v>-0.05449112487297129</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7">
       <c r="A86" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B86">
-        <v>-0.004619179751392177</v>
+        <v>-0.01104752423054928</v>
       </c>
       <c r="C86">
-        <v>-0.0007792636683985522</v>
+        <v>-0.02263875588334873</v>
       </c>
       <c r="D86">
-        <v>-0.0004079982053340567</v>
+        <v>0.008880751535494098</v>
       </c>
       <c r="E86">
-        <v>0.01334474778623962</v>
-      </c>
-    </row>
-    <row r="87" spans="1:5">
+        <v>-0.02515144003449304</v>
+      </c>
+      <c r="F86">
+        <v>-0.01609662878478972</v>
+      </c>
+      <c r="G86">
+        <v>0.04701260498579405</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7">
       <c r="A87" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B87">
-        <v>-0.006009333539121136</v>
+        <v>-0.01422160298692304</v>
       </c>
       <c r="C87">
-        <v>-0.0135997675665014</v>
+        <v>-0.02811568065502964</v>
       </c>
       <c r="D87">
-        <v>0.02304858504159122</v>
+        <v>0.01147098052612437</v>
       </c>
       <c r="E87">
-        <v>0.01140650739127172</v>
-      </c>
-    </row>
-    <row r="88" spans="1:5">
+        <v>-0.07879035871802886</v>
+      </c>
+      <c r="F87">
+        <v>-0.0553750329260136</v>
+      </c>
+      <c r="G87">
+        <v>0.04415841186908025</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7">
       <c r="A88" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B88">
-        <v>-0.02576555930655479</v>
+        <v>-0.0877671358837224</v>
       </c>
       <c r="C88">
-        <v>-0.04539687024288541</v>
+        <v>-0.05693586419300998</v>
       </c>
       <c r="D88">
-        <v>0.008756529723266147</v>
+        <v>0.02141126728512011</v>
       </c>
       <c r="E88">
-        <v>0.01292119100884611</v>
-      </c>
-    </row>
-    <row r="89" spans="1:5">
+        <v>0.009095722314954653</v>
+      </c>
+      <c r="F88">
+        <v>0.006732307426012745</v>
+      </c>
+      <c r="G88">
+        <v>0.02552646119656385</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7">
       <c r="A89" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B89">
-        <v>-0.04750395742840195</v>
+        <v>-0.2163586990986223</v>
       </c>
       <c r="C89">
-        <v>-0.2261290025709227</v>
+        <v>0.3698368900300132</v>
       </c>
       <c r="D89">
-        <v>-0.3708363878020377</v>
+        <v>-0.008894372358099452</v>
       </c>
       <c r="E89">
-        <v>-0.1135577968438657</v>
-      </c>
-    </row>
-    <row r="90" spans="1:5">
+        <v>0.01654453091800461</v>
+      </c>
+      <c r="F89">
+        <v>0.03370668072976899</v>
+      </c>
+      <c r="G89">
+        <v>0.0270380589592856</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7">
       <c r="A90" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B90">
-        <v>-0.03504518078749125</v>
+        <v>-0.1852816890690879</v>
       </c>
       <c r="C90">
-        <v>-0.1363986995447003</v>
+        <v>0.3383189443738908</v>
       </c>
       <c r="D90">
-        <v>-0.3038188994002398</v>
+        <v>-0.01225393171912762</v>
       </c>
       <c r="E90">
-        <v>-0.0949276987227142</v>
-      </c>
-    </row>
-    <row r="91" spans="1:5">
+        <v>-0.002082817055736364</v>
+      </c>
+      <c r="F90">
+        <v>0.04840180927833621</v>
+      </c>
+      <c r="G90">
+        <v>0.001871338043327268</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7">
       <c r="A91" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B91">
-        <v>0.002150052803321192</v>
+        <v>-0.2102540489045338</v>
       </c>
       <c r="C91">
-        <v>-0.2609693194438839</v>
+        <v>-0.1341835881049535</v>
       </c>
       <c r="D91">
-        <v>0.1492178828194665</v>
+        <v>-0.02505572241877136</v>
       </c>
       <c r="E91">
-        <v>0.1146314599162728</v>
-      </c>
-    </row>
-    <row r="92" spans="1:5">
+        <v>0.0896346568319393</v>
+      </c>
+      <c r="F91">
+        <v>0.189522122466707</v>
+      </c>
+      <c r="G91">
+        <v>-0.005143249410506833</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7">
       <c r="A92" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B92">
-        <v>-0.001037469176895362</v>
+        <v>-0.2039761159537452</v>
       </c>
       <c r="C92">
-        <v>-0.2842916892645804</v>
+        <v>0.2701755087495391</v>
       </c>
       <c r="D92">
-        <v>-0.2698813909790714</v>
+        <v>-0.0542310668730198</v>
       </c>
       <c r="E92">
-        <v>-0.07859881195673817</v>
-      </c>
-    </row>
-    <row r="93" spans="1:5">
+        <v>0.009711627706913672</v>
+      </c>
+      <c r="F92">
+        <v>0.1308842110892511</v>
+      </c>
+      <c r="G92">
+        <v>0.06784087798857516</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7">
       <c r="A93" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B93">
-        <v>-0.03403536984090074</v>
+        <v>-0.2104338185330861</v>
       </c>
       <c r="C93">
-        <v>-0.2001499122594778</v>
+        <v>0.3349392026627326</v>
       </c>
       <c r="D93">
-        <v>-0.3471019304571358</v>
+        <v>-0.01913366460309802</v>
       </c>
       <c r="E93">
-        <v>-0.07975360923523578</v>
-      </c>
-    </row>
-    <row r="94" spans="1:5">
+        <v>-0.008090974093312026</v>
+      </c>
+      <c r="F93">
+        <v>0.02475582804018317</v>
+      </c>
+      <c r="G93">
+        <v>-0.0004833330083589536</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7">
       <c r="A94" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B94">
-        <v>-0.01761087280878069</v>
+        <v>-0.2820499761959097</v>
       </c>
       <c r="C94">
-        <v>-0.3002284281685064</v>
+        <v>-0.1546944961617722</v>
       </c>
       <c r="D94">
-        <v>0.1073593710944469</v>
+        <v>-0.01451202947676085</v>
       </c>
       <c r="E94">
-        <v>0.1515818037647434</v>
-      </c>
-    </row>
-    <row r="95" spans="1:5">
+        <v>0.116301095617133</v>
+      </c>
+      <c r="F94">
+        <v>0.390697540864143</v>
+      </c>
+      <c r="G94">
+        <v>-0.1499426620841145</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7">
       <c r="A95" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B95">
-        <v>0.006326544319690154</v>
+        <v>-0.08200650896820715</v>
       </c>
       <c r="C95">
-        <v>-0.07808486751324203</v>
+        <v>-0.07677481577440314</v>
       </c>
       <c r="D95">
-        <v>-0.02556815653278588</v>
+        <v>-0.007534270009649142</v>
       </c>
       <c r="E95">
-        <v>0.1025289315844961</v>
-      </c>
-    </row>
-    <row r="96" spans="1:5">
+        <v>-0.08136114842455831</v>
+      </c>
+      <c r="F95">
+        <v>-0.1576645077266287</v>
+      </c>
+      <c r="G95">
+        <v>-0.05625528725338909</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7">
       <c r="A96" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2326,10 +2902,16 @@
       <c r="E96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:5">
+      <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7">
       <c r="A97" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -2343,27 +2925,39 @@
       <c r="E97">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:5">
+      <c r="F97">
+        <v>0</v>
+      </c>
+      <c r="G97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7">
       <c r="A98" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B98">
-        <v>-0.00171736753476829</v>
+        <v>-0.21104177239557</v>
       </c>
       <c r="C98">
-        <v>-0.1887276636222824</v>
+        <v>-0.04471503749521891</v>
       </c>
       <c r="D98">
-        <v>-0.01121809496846747</v>
+        <v>-0.01741797759956805</v>
       </c>
       <c r="E98">
-        <v>0.07743897754242741</v>
-      </c>
-    </row>
-    <row r="99" spans="1:5">
+        <v>-0.07470076891666083</v>
+      </c>
+      <c r="F98">
+        <v>-0.2432703220973818</v>
+      </c>
+      <c r="G98">
+        <v>-0.03360032154787766</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7">
       <c r="A99" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2377,10 +2971,16 @@
       <c r="E99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:5">
+      <c r="F99">
+        <v>0</v>
+      </c>
+      <c r="G99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7">
       <c r="A100" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2394,73 +2994,103 @@
       <c r="E100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:5">
+      <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7">
       <c r="A101" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B101">
-        <v>-0.007860237305418545</v>
+        <v>-0.01401324104852068</v>
       </c>
       <c r="C101">
-        <v>-0.02429208827480944</v>
+        <v>-0.01973939072051597</v>
       </c>
       <c r="D101">
-        <v>0.005660415073674006</v>
+        <v>0.008235078170871326</v>
       </c>
       <c r="E101">
-        <v>0.006740490379372547</v>
-      </c>
-    </row>
-    <row r="102" spans="1:5">
+        <v>-0.03508469788615699</v>
+      </c>
+      <c r="F101">
+        <v>0.02813891940569218</v>
+      </c>
+      <c r="G101">
+        <v>0.03784210391989882</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7">
       <c r="A102" s="1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B102">
-        <v>-0.0121811385335739</v>
+        <v>-0.1247798399642467</v>
       </c>
       <c r="C102">
-        <v>-0.1428521834896733</v>
+        <v>-0.08143812939922832</v>
       </c>
       <c r="D102">
-        <v>0.07021087274764184</v>
+        <v>-0.0003846954913554615</v>
       </c>
       <c r="E102">
-        <v>0.05504915501659314</v>
-      </c>
-    </row>
-    <row r="103" spans="1:5">
+        <v>0.04456773136870396</v>
+      </c>
+      <c r="F102">
+        <v>0.06110764498000449</v>
+      </c>
+      <c r="G102">
+        <v>-0.01050968610866525</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7">
       <c r="A103" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B103">
-        <v>-0.001936463015254544</v>
+        <v>-0.004321373473117266</v>
       </c>
       <c r="C103">
-        <v>-0.02444007553439094</v>
+        <v>-0.005440433727903041</v>
       </c>
       <c r="D103">
-        <v>0.02343147779098788</v>
+        <v>0.0006541967096568187</v>
       </c>
       <c r="E103">
-        <v>-0.002928967659269099</v>
-      </c>
-    </row>
-    <row r="104" spans="1:5">
+        <v>0.000729394527741128</v>
+      </c>
+      <c r="F103">
+        <v>0.007891812231485891</v>
+      </c>
+      <c r="G103">
+        <v>0.01727139247453253</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7">
       <c r="A104" s="1" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B104">
-        <v>-0.9873605684196139</v>
+        <v>-0.03972172427426808</v>
       </c>
       <c r="C104">
-        <v>0.07716959400967226</v>
+        <v>0.04525450691986743</v>
       </c>
       <c r="D104">
-        <v>0.03582885103754029</v>
+        <v>0.9861921044450025</v>
       </c>
       <c r="E104">
-        <v>-0.01025719109493571</v>
+        <v>0.04501806064233389</v>
+      </c>
+      <c r="F104">
+        <v>0.03674986442104938</v>
+      </c>
+      <c r="G104">
+        <v>0.0002775230907219407</v>
       </c>
     </row>
   </sheetData>
